--- a/src/test/resources/Practice_TestData.xlsx
+++ b/src/test/resources/Practice_TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HiteshRatnani/eclipse-workspace/PracticeHome/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{0842AFF6-5081-6749-9847-D62180EAB3A2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3C44512B-52F3-984F-B555-E3C1BB9B22F1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16160" xr2:uid="{DEC6BBFC-768B-734C-87E9-687D33D8A206}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -67,19 +67,43 @@
   </si>
   <si>
     <t>Tester</t>
+  </si>
+  <si>
+    <t>loginGmailMedha</t>
+  </si>
+  <si>
+    <t>sharmamedha0106</t>
+  </si>
+  <si>
+    <t>Charlie777#</t>
+  </si>
+  <si>
+    <t>launchApplication</t>
+  </si>
+  <si>
+    <t>oi234</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Monaco"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -102,8 +126,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E0CB49-624E-D145-ACAE-C5DDF4218C69}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -485,7 +510,33 @@
         <v>13</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>111</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>